--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D2A97-9645-46FB-AE01-D36B863F4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96003577-E2FC-4AA4-BCAC-993C519B5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,34 @@
   </si>
   <si>
     <t>SumiFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic10</t>
+  </si>
+  <si>
+    <t>relic11</t>
+  </si>
+  <si>
+    <t>relic12</t>
+  </si>
+  <si>
+    <t>parentIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsuRelic</t>
+  </si>
+  <si>
+    <t>황룡의 여의주 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡의 여의주 2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡의 여의주 3단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,12 +612,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,9 +633,10 @@
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="23.25" customWidth="1"/>
     <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +682,11 @@
       <c r="O1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -697,8 +729,11 @@
       <c r="O2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -741,8 +776,11 @@
       <c r="O3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -785,8 +823,11 @@
       <c r="O4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -830,8 +871,11 @@
       <c r="O5" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,8 +919,11 @@
       <c r="O6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -920,8 +967,11 @@
       <c r="O7" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -967,8 +1017,11 @@
       <c r="O8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1014,8 +1067,11 @@
       <c r="O9" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1061,8 +1117,11 @@
       <c r="O10" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1107,6 +1166,159 @@
       </c>
       <c r="O11" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.3E-10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.6600000000000001E-9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96003577-E2FC-4AA4-BCAC-993C519B5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C8C72-D526-4DCD-87F2-53960EB1E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -940,7 +940,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F7" s="2">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C8C72-D526-4DCD-87F2-53960EB1E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9B970-A56C-4E4D-91C6-B219FAD6DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,32 @@
   </si>
   <si>
     <t>황룡의 여의주 3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic13</t>
+  </si>
+  <si>
+    <t>relic14</t>
+  </si>
+  <si>
+    <t>relic15</t>
+  </si>
+  <si>
+    <t>흑호의 보주 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑호의 보주 2단계</t>
+  </si>
+  <si>
+    <t>흑호의 보주 3단계</t>
+  </si>
+  <si>
+    <t>HyungsuRelic</t>
+  </si>
+  <si>
+    <t>HyungsuRelic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,12 +638,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1321,6 +1347,156 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.9999999999999995E-11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.1999999999999998E-10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1333,7 +1509,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9B970-A56C-4E4D-91C6-B219FAD6DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D541C-BF87-4632-A163-EFD42A870EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,17 @@
   </si>
   <si>
     <t>HyungsuRelic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic16</t>
+  </si>
+  <si>
+    <t>도적단 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tresure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,12 +649,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1497,6 +1508,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.4999999999999993E-9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D541C-BF87-4632-A163-EFD42A870EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B31D1-D543-4AFD-B3D0-B449D56A8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,17 @@
   </si>
   <si>
     <t>Tresure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic17</t>
+  </si>
+  <si>
+    <t>DarkTreasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연 전설검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,6 +263,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.E+00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +345,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,12 +666,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1558,6 +1575,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F19" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="1">
+        <v>300</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B31D1-D543-4AFD-B3D0-B449D56A8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8409844-154A-4E5D-8443-EF1C5B4F59B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>심연 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsunTreasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,12 +678,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1625,6 +1637,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
